--- a/data/Yting_260321_20210326-103027/Results mean.xlsx
+++ b/data/Yting_260321_20210326-103027/Results mean.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Github Repos\BachelorGUI\data\Yting_260321_20210326-103027\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB670FAB-FDF2-49C4-8B56-B7588EEBF1B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1965" yWindow="3555" windowWidth="25995" windowHeight="10035" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Calc" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="110">
   <si>
     <t>Lab. #</t>
   </si>
@@ -168,159 +174,69 @@
     <t>244/233U</t>
   </si>
   <si>
-    <t>Fehler1</t>
-  </si>
-  <si>
     <t>235/236U</t>
   </si>
   <si>
-    <t>Fehler2</t>
-  </si>
-  <si>
     <t>238/236U</t>
   </si>
   <si>
-    <t>Fehler3</t>
-  </si>
-  <si>
     <t>Blank 234</t>
   </si>
   <si>
-    <t>234U1</t>
-  </si>
-  <si>
-    <t>Fehler4</t>
-  </si>
-  <si>
-    <t>234U2</t>
-  </si>
-  <si>
-    <t>Fehler5</t>
-  </si>
-  <si>
     <t>Blank 238</t>
   </si>
   <si>
-    <t>238U1</t>
-  </si>
-  <si>
-    <t>Fehler6</t>
-  </si>
-  <si>
-    <t>238U2</t>
-  </si>
-  <si>
-    <t>Fehler7</t>
-  </si>
-  <si>
     <t>234U/238U</t>
   </si>
   <si>
-    <t>Fehler8</t>
-  </si>
-  <si>
     <t>234U/238Ukorr</t>
   </si>
   <si>
-    <t>Fehler9</t>
-  </si>
-  <si>
     <t>Blank 232</t>
   </si>
   <si>
     <t>232Th</t>
   </si>
   <si>
-    <t>Fehler10</t>
-  </si>
-  <si>
     <t>A232</t>
   </si>
   <si>
-    <t>Fehler11</t>
-  </si>
-  <si>
     <t>Ch. Bl. 230</t>
   </si>
   <si>
-    <t>230Th1</t>
-  </si>
-  <si>
-    <t>Fehler12</t>
-  </si>
-  <si>
-    <t>230Th2</t>
-  </si>
-  <si>
-    <t>Fehler13</t>
-  </si>
-  <si>
     <t>A230/232</t>
   </si>
   <si>
-    <t>Fehler14</t>
-  </si>
-  <si>
     <t>d234U</t>
   </si>
   <si>
-    <t>Fehler15</t>
-  </si>
-  <si>
     <t>230Th/238U</t>
   </si>
   <si>
-    <t>Fehler16</t>
-  </si>
-  <si>
     <t>230Th/238Ukorr</t>
   </si>
   <si>
-    <t>Fehler17</t>
-  </si>
-  <si>
     <t>Alter (unkorr.)</t>
   </si>
   <si>
-    <t>Fehler18</t>
-  </si>
-  <si>
     <t>Fehler</t>
   </si>
   <si>
     <t>232Th/238U</t>
   </si>
   <si>
-    <t>Fehler20</t>
-  </si>
-  <si>
     <t>(230Th/232Th)</t>
   </si>
   <si>
-    <t>Fehler21</t>
-  </si>
-  <si>
     <t>Cheng korr.</t>
   </si>
   <si>
-    <t>Fehler22</t>
-  </si>
-  <si>
-    <t>Fehler23</t>
-  </si>
-  <si>
-    <t>Fehler24</t>
-  </si>
-  <si>
     <t>Bezeichnung</t>
   </si>
   <si>
     <t>d234U (initial)</t>
   </si>
   <si>
-    <t>Fehler25</t>
-  </si>
-  <si>
     <t>Cheng korr</t>
   </si>
   <si>
@@ -358,9 +274,6 @@
   </si>
   <si>
     <t>(dpmg/g)</t>
-  </si>
-  <si>
-    <t>(o/oo)</t>
   </si>
   <si>
     <t>(abso.) o/oo</t>
@@ -469,9 +382,6 @@
     <t>(Akt.Ver.)</t>
   </si>
   <si>
-    <t>(abso.) (o/oo)</t>
-  </si>
-  <si>
     <r>
       <t>(abso.) (</t>
     </r>
@@ -520,12 +430,27 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Shell 1</t>
+  </si>
+  <si>
+    <t>Shell 2</t>
+  </si>
+  <si>
+    <t>Shell 3</t>
+  </si>
+  <si>
+    <t>Shell 4</t>
+  </si>
+  <si>
+    <t>Shell 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,8 +466,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +495,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFC876"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB9795"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,17 +559,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDB9795"/>
+      <color rgb="FFAFC876"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -656,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,9 +659,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,6 +711,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,12 +904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -915,11 +924,8 @@
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="12" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" customWidth="1"/>
@@ -932,7 +938,7 @@
     <col min="26" max="26" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K2" s="3" t="s">
         <v>46</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1">
+    <row r="3" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10815</v>
       </c>
@@ -1068,58 +1074,58 @@
         <v>1.10995</v>
       </c>
       <c r="G3" s="4">
-        <v>10.34908</v>
+        <v>10.349080000000001</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="4">
-        <v>0.01023542238374481</v>
+        <v>1.0235422383744809E-2</v>
       </c>
       <c r="J3" s="4">
-        <v>2.525366425064601</v>
+        <v>2.5253664250646009</v>
       </c>
       <c r="K3" s="4">
-        <v>0.007165735470860413</v>
+        <v>7.1657354708604126E-3</v>
       </c>
       <c r="L3" s="4">
-        <v>0.01478863668832112</v>
+        <v>1.478863668832112E-2</v>
       </c>
       <c r="M3" s="4">
-        <v>2.732165266071587</v>
+        <v>2.7321652660715872</v>
       </c>
       <c r="N3" s="4">
-        <v>0.02316925422885041</v>
+        <v>2.3169254228850411E-2</v>
       </c>
       <c r="O3" s="4">
-        <v>1.808951687183812</v>
+        <v>1.8089516871838121</v>
       </c>
       <c r="P3" s="4">
-        <v>2.576467054448028</v>
+        <v>2.5764670544480279</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.006778780467003105</v>
+        <v>6.7787804670031053E-3</v>
       </c>
       <c r="R3" s="4">
         <v>0.1702537581274621</v>
       </c>
       <c r="S3" s="4">
-        <v>4.916399262409689E-05</v>
+        <v>4.9163992624096888E-5</v>
       </c>
       <c r="T3" s="4">
         <v>0.1702537581274623</v>
       </c>
       <c r="U3" s="4">
-        <v>1.318240643972384</v>
+        <v>1.3182406439723839</v>
       </c>
       <c r="V3" s="4">
-        <v>0.5337376544124303</v>
+        <v>0.53373765441243026</v>
       </c>
       <c r="W3" s="4">
-        <v>0.1702167991392523</v>
+        <v>0.17021679913925231</v>
       </c>
       <c r="X3" s="4">
-        <v>1.613088256207097</v>
+        <v>1.6130882562070969</v>
       </c>
       <c r="Y3" s="4">
         <v>0.2230016042121955</v>
@@ -1128,7 +1134,7 @@
         <v>1.55796235410836</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11069</v>
       </c>
@@ -1145,31 +1151,31 @@
         <v>62.5</v>
       </c>
       <c r="F4">
-        <v>0.06709</v>
+        <v>6.7089999999999997E-2</v>
       </c>
       <c r="G4">
-        <v>0.1013800000000007</v>
+        <v>0.10138000000000071</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
       </c>
       <c r="I4">
-        <v>0.01023651243346234</v>
+        <v>1.023651243346234E-2</v>
       </c>
       <c r="J4">
-        <v>3.9025283601347</v>
+        <v>3.9025283601347001</v>
       </c>
       <c r="K4">
-        <v>0.007151741669928597</v>
+        <v>7.1517416699285966E-3</v>
       </c>
       <c r="L4">
-        <v>0.243603262622918</v>
+        <v>0.24360326262291801</v>
       </c>
       <c r="M4">
         <v>0.2056506777876824</v>
       </c>
       <c r="N4">
-        <v>2.826771272669783</v>
+        <v>2.8267712726697831</v>
       </c>
       <c r="O4">
         <v>0.1561259601382454</v>
@@ -1178,37 +1184,37 @@
         <v>2.240823406699239</v>
       </c>
       <c r="Q4">
-        <v>0.007580485368271605</v>
+        <v>7.5804853682716047E-3</v>
       </c>
       <c r="R4">
-        <v>0.2107154052185198</v>
+        <v>0.21071540521851981</v>
       </c>
       <c r="S4">
-        <v>5.49784623571892E-05</v>
+        <v>5.4978462357189198E-5</v>
       </c>
       <c r="T4">
-        <v>0.2107154052185211</v>
+        <v>0.21071540521852111</v>
       </c>
       <c r="U4">
-        <v>0.03604320149520462</v>
+        <v>3.6043201495204617E-2</v>
       </c>
       <c r="V4">
-        <v>5.579804477398916</v>
+        <v>5.5798044773989162</v>
       </c>
       <c r="W4">
-        <v>0.327277029526253</v>
+        <v>0.32727702952625298</v>
       </c>
       <c r="X4">
-        <v>1.221362702752062</v>
+        <v>1.2213627027520619</v>
       </c>
       <c r="Y4">
-        <v>0.01154992788514052</v>
+        <v>1.154992788514052E-2</v>
       </c>
       <c r="Z4">
-        <v>0.779407971311902</v>
+        <v>0.77940797131190198</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="4" customFormat="1">
+    <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10815</v>
       </c>
@@ -1225,67 +1231,67 @@
         <v>1.10995</v>
       </c>
       <c r="G5" s="4">
-        <v>10.34908</v>
+        <v>10.349080000000001</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="4">
-        <v>0.009931202987964183</v>
+        <v>9.9312029879641828E-3</v>
       </c>
       <c r="J5" s="4">
-        <v>2.847590900310127</v>
+        <v>2.8475909003101272</v>
       </c>
       <c r="K5" s="4">
-        <v>0.007161373392654631</v>
+        <v>7.1613733926546314E-3</v>
       </c>
       <c r="L5" s="4">
-        <v>0.01241336652264171</v>
+        <v>1.241336652264171E-2</v>
       </c>
       <c r="M5" s="4">
-        <v>2.73261122757083</v>
+        <v>2.7326112275708301</v>
       </c>
       <c r="N5" s="4">
-        <v>0.02835810671222438</v>
+        <v>2.8358106712224381E-2</v>
       </c>
       <c r="O5" s="4">
-        <v>1.868456204221887</v>
+        <v>1.8684562042218871</v>
       </c>
       <c r="P5" s="4">
-        <v>3.005917901200326</v>
+        <v>3.0059179012003261</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.006788281550880812</v>
+        <v>6.7882815508808116E-3</v>
       </c>
       <c r="R5" s="4">
-        <v>0.1328036878103157</v>
+        <v>0.13280368781031571</v>
       </c>
       <c r="S5" s="4">
-        <v>4.923290047853448E-05</v>
+        <v>4.9232900478534483E-5</v>
       </c>
       <c r="T5" s="4">
-        <v>0.1328036878103152</v>
+        <v>0.13280368781031521</v>
       </c>
       <c r="U5" s="4">
-        <v>1.31762407900823</v>
+        <v>1.3176240790082301</v>
       </c>
       <c r="V5" s="4">
-        <v>0.7002340683123393</v>
+        <v>0.70023406831233925</v>
       </c>
       <c r="W5" s="4">
-        <v>0.1724751551947613</v>
+        <v>0.17247515519476131</v>
       </c>
       <c r="X5" s="4">
         <v>1.285509659675717</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.227718299854116</v>
+        <v>0.22771829985411601</v>
       </c>
       <c r="Z5" s="4">
         <v>1.001689343495457</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11070</v>
       </c>
@@ -1302,70 +1308,70 @@
         <v>99</v>
       </c>
       <c r="F6">
-        <v>0.04188</v>
+        <v>4.1880000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>0.1033500000000007</v>
+        <v>0.10335000000000071</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
       <c r="I6">
-        <v>0.01003286248391662</v>
+        <v>1.003286248391662E-2</v>
       </c>
       <c r="J6">
-        <v>0.4349841647427725</v>
+        <v>0.43498416474277252</v>
       </c>
       <c r="K6">
-        <v>0.00713951470888153</v>
+        <v>7.1395147088815303E-3</v>
       </c>
       <c r="L6">
         <v>0.124516000850981</v>
       </c>
       <c r="M6">
-        <v>0.03411091781235923</v>
+        <v>3.4110917812359233E-2</v>
       </c>
       <c r="N6">
-        <v>0.111622494396719</v>
+        <v>0.11162249439671899</v>
       </c>
       <c r="O6">
-        <v>0.02564128291718566</v>
+        <v>2.5641282917185659E-2</v>
       </c>
       <c r="P6">
-        <v>0.659620017780448</v>
+        <v>0.65962001778044799</v>
       </c>
       <c r="Q6">
-        <v>0.007522659131886342</v>
+        <v>7.5226591318863422E-3</v>
       </c>
       <c r="R6">
-        <v>0.5006180776771035</v>
+        <v>0.50061807767710353</v>
       </c>
       <c r="S6">
-        <v>5.455907000882169E-05</v>
+        <v>5.4559070008821688E-5</v>
       </c>
       <c r="T6">
         <v>0.5006180776771032</v>
       </c>
       <c r="U6">
-        <v>0.00581951220202368</v>
+        <v>5.8195122020236797E-3</v>
       </c>
       <c r="V6">
         <v>2.780815804282748</v>
       </c>
       <c r="W6">
-        <v>0.224860292588127</v>
+        <v>0.22486029258812701</v>
       </c>
       <c r="X6">
         <v>1.324936855350163</v>
       </c>
       <c r="Y6">
-        <v>0.001290716398291085</v>
+        <v>1.2907163982910849E-3</v>
       </c>
       <c r="Z6">
-        <v>2.940693528015276</v>
+        <v>2.9406935280152759</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1">
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10815</v>
       </c>
@@ -1382,67 +1388,67 @@
         <v>1.10995</v>
       </c>
       <c r="G7" s="4">
-        <v>10.34908</v>
+        <v>10.349080000000001</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="4">
-        <v>0.009938835616045487</v>
+        <v>9.9388356160454872E-3</v>
       </c>
       <c r="J7" s="4">
         <v>2.816784145733791</v>
       </c>
       <c r="K7" s="4">
-        <v>0.007138558533294139</v>
+        <v>7.1385585332941386E-3</v>
       </c>
       <c r="L7" s="4">
-        <v>0.01676722484027121</v>
+        <v>1.6767224840271211E-2</v>
       </c>
       <c r="M7" s="4">
-        <v>2.732135489862179</v>
+        <v>2.7321354898621788</v>
       </c>
       <c r="N7" s="4">
-        <v>0.03758562717671422</v>
+        <v>3.7585627176714223E-2</v>
       </c>
       <c r="O7" s="4">
-        <v>1.951132635891098</v>
+        <v>1.9511326358910981</v>
       </c>
       <c r="P7" s="4">
-        <v>2.610342952444355</v>
+        <v>2.6103429524443551</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.007105781488919688</v>
+        <v>7.105781488919688E-3</v>
       </c>
       <c r="R7" s="4">
-        <v>0.1428953177503862</v>
+        <v>0.14289531775038619</v>
       </c>
       <c r="S7" s="4">
-        <v>5.153561033731759E-05</v>
+        <v>5.1535610337317592E-5</v>
       </c>
       <c r="T7" s="4">
-        <v>0.1428953177503859</v>
+        <v>0.14289531775038589</v>
       </c>
       <c r="U7" s="4">
         <v>1.315685602038329</v>
       </c>
       <c r="V7" s="4">
-        <v>0.5409586722616812</v>
+        <v>0.54095867226168115</v>
       </c>
       <c r="W7" s="4">
-        <v>0.1815974558276844</v>
+        <v>0.18159745582768441</v>
       </c>
       <c r="X7" s="4">
-        <v>1.27636062647053</v>
+        <v>1.2763606264705301</v>
       </c>
       <c r="Y7" s="4">
         <v>0.2399428959188615</v>
       </c>
       <c r="Z7" s="4">
-        <v>1.279373571369847</v>
+        <v>1.2793735713698471</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11071</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>98.5</v>
       </c>
       <c r="F8">
-        <v>0.09655</v>
+        <v>9.6549999999999997E-2</v>
       </c>
       <c r="G8">
         <v>0.1004199999999997</v>
@@ -1468,61 +1474,61 @@
         <v>40</v>
       </c>
       <c r="I8">
-        <v>0.01000159070118261</v>
+        <v>1.000159070118261E-2</v>
       </c>
       <c r="J8">
-        <v>0.2995195323465933</v>
+        <v>0.29951953234659329</v>
       </c>
       <c r="K8">
-        <v>0.00714736006040352</v>
+        <v>7.14736006040352E-3</v>
       </c>
       <c r="L8">
-        <v>0.03217463243436037</v>
+        <v>3.2174632434360369E-2</v>
       </c>
       <c r="M8">
-        <v>0.1302778757219377</v>
+        <v>0.13027787572193769</v>
       </c>
       <c r="N8">
-        <v>0.03044843328979099</v>
+        <v>3.044843328979099E-2</v>
       </c>
       <c r="O8">
-        <v>0.09969720717163566</v>
+        <v>9.969720717163566E-2</v>
       </c>
       <c r="P8">
-        <v>0.4051568008543506</v>
+        <v>0.40515680085435057</v>
       </c>
       <c r="Q8">
-        <v>0.007644009162360457</v>
+        <v>7.6440091623604569E-3</v>
       </c>
       <c r="R8">
         <v>0.1962098513192351</v>
       </c>
       <c r="S8">
-        <v>5.543917698856591E-05</v>
+        <v>5.5439176988565909E-5</v>
       </c>
       <c r="T8">
         <v>0.1962098513192353</v>
       </c>
       <c r="U8">
-        <v>0.01782589513152004</v>
+        <v>1.7825895131520039E-2</v>
       </c>
       <c r="V8">
-        <v>1.002151359149723</v>
+        <v>1.0021513591497231</v>
       </c>
       <c r="W8">
         <v>0.2501805126752944</v>
       </c>
       <c r="X8">
-        <v>0.5595788267333994</v>
+        <v>0.55957882673339943</v>
       </c>
       <c r="Y8">
-        <v>0.004467168957753317</v>
+        <v>4.4671689577533173E-3</v>
       </c>
       <c r="Z8">
-        <v>0.6938224478811204</v>
+        <v>0.69382244788112035</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="4" customFormat="1">
+    <row r="9" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>10815</v>
       </c>
@@ -1539,58 +1545,58 @@
         <v>1.10995</v>
       </c>
       <c r="G9" s="4">
-        <v>10.34908</v>
+        <v>10.349080000000001</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="4">
-        <v>0.01003148007266415</v>
+        <v>1.003148007266415E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>1.995271778797226</v>
+        <v>1.9952717787972261</v>
       </c>
       <c r="K9" s="4">
-        <v>0.007146590616651994</v>
+        <v>7.1465906166519938E-3</v>
       </c>
       <c r="L9" s="4">
-        <v>0.01366064184467083</v>
+        <v>1.3660641844670829E-2</v>
       </c>
       <c r="M9" s="4">
-        <v>2.731930548347546</v>
+        <v>2.7319305483475458</v>
       </c>
       <c r="N9" s="4">
-        <v>0.03047594804747604</v>
+        <v>3.047594804747604E-2</v>
       </c>
       <c r="O9" s="4">
-        <v>1.91296454162027</v>
+        <v>1.9129645416202701</v>
       </c>
       <c r="P9" s="4">
         <v>2.054691392795934</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.007005876889081848</v>
+        <v>7.0058768890818484E-3</v>
       </c>
       <c r="R9" s="4">
-        <v>0.145468296255499</v>
+        <v>0.14546829625549901</v>
       </c>
       <c r="S9" s="4">
-        <v>5.081103915029519E-05</v>
+        <v>5.0811039150295187E-5</v>
       </c>
       <c r="T9" s="4">
-        <v>0.145468296255498</v>
+        <v>0.14546829625549801</v>
       </c>
       <c r="U9" s="4">
-        <v>1.31376371035002</v>
+        <v>1.3137637103500199</v>
       </c>
       <c r="V9" s="4">
-        <v>0.40047877722829</v>
+        <v>0.40047877722829001</v>
       </c>
       <c r="W9" s="4">
-        <v>0.1796494562131981</v>
+        <v>0.17964945621319811</v>
       </c>
       <c r="X9" s="4">
-        <v>1.36647001859519</v>
+        <v>1.3664700185951899</v>
       </c>
       <c r="Y9" s="4">
         <v>0.2357733899885544</v>
@@ -1599,7 +1605,7 @@
         <v>1.309927692333007</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11072</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.07819</v>
+        <v>7.8189999999999996E-2</v>
       </c>
       <c r="G10">
         <v>0.1007600000000011</v>
@@ -1622,61 +1628,61 @@
         <v>42</v>
       </c>
       <c r="I10">
-        <v>0.01003530148248776</v>
+        <v>1.003530148248776E-2</v>
       </c>
       <c r="J10">
         <v>0.220048417453029</v>
       </c>
       <c r="K10">
-        <v>0.007143863131307234</v>
+        <v>7.1438631313072336E-3</v>
       </c>
       <c r="L10">
-        <v>0.01362275704189219</v>
+        <v>1.362275704189219E-2</v>
       </c>
       <c r="M10">
-        <v>0.38626528275149</v>
+        <v>0.38626528275149002</v>
       </c>
       <c r="N10">
-        <v>0.008381737472966153</v>
+        <v>8.3817374729661526E-3</v>
       </c>
       <c r="O10">
-        <v>0.2949953497862585</v>
+        <v>0.29499534978625852</v>
       </c>
       <c r="P10">
-        <v>0.2453161363518621</v>
+        <v>0.24531613635186211</v>
       </c>
       <c r="Q10">
-        <v>0.007675080197400639</v>
+        <v>7.6750801974006392E-3</v>
       </c>
       <c r="R10">
         <v>0.1597642391488841</v>
       </c>
       <c r="S10">
-        <v>5.566452373714028E-05</v>
+        <v>5.566452373714028E-5</v>
       </c>
       <c r="T10">
         <v>0.1597642391488846</v>
       </c>
       <c r="U10">
-        <v>0.1441234321365172</v>
+        <v>0.14412343213651721</v>
       </c>
       <c r="V10">
-        <v>0.3540798507298535</v>
+        <v>0.35407985072985348</v>
       </c>
       <c r="W10">
-        <v>0.01852905203638091</v>
+        <v>1.8529052036380909E-2</v>
       </c>
       <c r="X10">
         <v>0.2680031094358345</v>
       </c>
       <c r="Y10">
-        <v>0.002669231605397931</v>
+        <v>2.6692316053979312E-3</v>
       </c>
       <c r="Z10">
-        <v>0.2998133159033358</v>
+        <v>0.29981331590333582</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1">
+    <row r="11" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10815</v>
       </c>
@@ -1693,28 +1699,28 @@
         <v>1.10995</v>
       </c>
       <c r="G11" s="4">
-        <v>10.34908</v>
+        <v>10.349080000000001</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="4">
-        <v>0.009688541303555528</v>
+        <v>9.6885413035555281E-3</v>
       </c>
       <c r="J11" s="4">
-        <v>2.957211552912798</v>
+        <v>2.9572115529127978</v>
       </c>
       <c r="K11" s="4">
-        <v>0.007142427503754504</v>
+        <v>7.1424275037545041E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>0.01643797653779869</v>
+        <v>1.6437976537798691E-2</v>
       </c>
       <c r="M11" s="4">
-        <v>2.731666440643729</v>
+        <v>2.7316664406437292</v>
       </c>
       <c r="N11" s="4">
-        <v>0.02987075204664381</v>
+        <v>2.9870752046643811E-2</v>
       </c>
       <c r="O11" s="4">
         <v>1.998339578541245</v>
@@ -1723,37 +1729,37 @@
         <v>2.966860945576796</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.007040678016621821</v>
+        <v>7.040678016621821E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>0.1425624217092339</v>
+        <v>0.14256242170923389</v>
       </c>
       <c r="S11" s="4">
-        <v>5.1063438882963E-05</v>
+        <v>5.1063438882963001E-5</v>
       </c>
       <c r="T11" s="4">
         <v>0.1425624217092355</v>
       </c>
       <c r="U11" s="4">
-        <v>1.315343398344421</v>
+        <v>1.3153433983444209</v>
       </c>
       <c r="V11" s="4">
-        <v>0.5602296882894516</v>
+        <v>0.56022968828945163</v>
       </c>
       <c r="W11" s="4">
         <v>0.177974970287479</v>
       </c>
       <c r="X11" s="4">
-        <v>1.348432371958944</v>
+        <v>1.3484323719589439</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.2340376254952511</v>
+        <v>0.23403762549525109</v>
       </c>
       <c r="Z11" s="4">
         <v>1.249778956658016</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11074</v>
       </c>
@@ -1767,70 +1773,70 @@
         <v>34</v>
       </c>
       <c r="F12">
-        <v>0.07224999999999999</v>
+        <v>7.2249999999999995E-2</v>
       </c>
       <c r="G12">
-        <v>0.1019600000000001</v>
+        <v>0.10196000000000011</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
       </c>
       <c r="I12">
-        <v>0.009530949851512161</v>
+        <v>9.5309498515121615E-3</v>
       </c>
       <c r="J12">
-        <v>0.3029886373501832</v>
+        <v>0.30298863735018322</v>
       </c>
       <c r="K12">
-        <v>0.00713321812664829</v>
+        <v>7.1332181266482901E-3</v>
       </c>
       <c r="L12">
-        <v>0.01409443544888798</v>
+        <v>1.409443544888798E-2</v>
       </c>
       <c r="M12">
-        <v>0.449309322731185</v>
+        <v>0.44930932273118501</v>
       </c>
       <c r="N12">
-        <v>0.009845090719645582</v>
+        <v>9.8450907196455818E-3</v>
       </c>
       <c r="O12">
-        <v>0.3876068192742979</v>
+        <v>0.38760681927429791</v>
       </c>
       <c r="P12">
-        <v>0.3359403568749768</v>
+        <v>0.33594035687497681</v>
       </c>
       <c r="Q12">
-        <v>0.008214980541348931</v>
+        <v>8.2149805413489312E-3</v>
       </c>
       <c r="R12">
         <v>0.1181042773739492</v>
       </c>
       <c r="S12">
-        <v>5.958022165018338E-05</v>
+        <v>5.9580221650183378E-5</v>
       </c>
       <c r="T12">
         <v>0.1181042773739502</v>
       </c>
       <c r="U12">
-        <v>0.1435802128450965</v>
+        <v>0.14358021284509651</v>
       </c>
       <c r="V12">
-        <v>0.336225689862737</v>
+        <v>0.33622568986273699</v>
       </c>
       <c r="W12">
-        <v>0.0009642275086030902</v>
+        <v>9.6422750860309021E-4</v>
       </c>
       <c r="X12">
-        <v>0.242283315585006</v>
+        <v>0.24228331558500599</v>
       </c>
       <c r="Y12">
-        <v>0.0001385718953360891</v>
+        <v>1.3857189533608911E-4</v>
       </c>
       <c r="Z12">
-        <v>0.2439946920379288</v>
+        <v>0.24399469203792881</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="4" customFormat="1">
+    <row r="13" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10815</v>
       </c>
@@ -1847,43 +1853,43 @@
         <v>1.10995</v>
       </c>
       <c r="G13" s="4">
-        <v>10.34908</v>
+        <v>10.349080000000001</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="4">
-        <v>0.01012869368785669</v>
+        <v>1.0128693687856689E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>2.810876262437888</v>
+        <v>2.8108762624378878</v>
       </c>
       <c r="K13" s="4">
-        <v>0.007130956613605904</v>
+        <v>7.1309566136059039E-3</v>
       </c>
       <c r="L13" s="4">
-        <v>0.01752644314192083</v>
+        <v>1.7526443141920828E-2</v>
       </c>
       <c r="M13" s="4">
-        <v>2.733315956497029</v>
+        <v>2.7333159564970289</v>
       </c>
       <c r="N13" s="4">
-        <v>0.03098775925022471</v>
+        <v>3.0987759250224709E-2</v>
       </c>
       <c r="O13" s="4">
-        <v>1.943086602579645</v>
+        <v>1.9430866025796449</v>
       </c>
       <c r="P13" s="4">
         <v>2.901203152336854</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.00715689579776092</v>
+        <v>7.1568957977609197E-3</v>
       </c>
       <c r="R13" s="4">
         <v>0.1353699141565714</v>
       </c>
       <c r="S13" s="4">
-        <v>5.190632355263537E-05</v>
+        <v>5.1906323552635368E-5</v>
       </c>
       <c r="T13" s="4">
         <v>0.1353699141565709</v>
@@ -1892,7 +1898,7 @@
         <v>1.31633189883816</v>
       </c>
       <c r="V13" s="4">
-        <v>0.4543621109275845</v>
+        <v>0.45436211092758449</v>
       </c>
       <c r="W13" s="4">
         <v>0.1786038163860654</v>
@@ -1901,10 +1907,10 @@
         <v>1.294252663780376</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.2357903936137166</v>
+        <v>0.23579039361371659</v>
       </c>
       <c r="Z13" s="4">
-        <v>1.367741377955286</v>
+        <v>1.3677413779552861</v>
       </c>
     </row>
   </sheetData>
@@ -1913,12 +1919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -1930,8 +1936,7 @@
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
@@ -1945,16 +1950,14 @@
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" customWidth="1"/>
     <col min="25" max="25" width="22.7109375" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" customWidth="1"/>
-    <col min="27" max="27" width="23.7109375" customWidth="1"/>
+    <col min="26" max="27" width="23.7109375" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" customWidth="1"/>
     <col min="30" max="30" width="22.7109375" customWidth="1"/>
     <col min="31" max="31" width="21.7109375" customWidth="1"/>
     <col min="32" max="32" width="23.7109375" customWidth="1"/>
     <col min="33" max="33" width="19.7109375" customWidth="1"/>
-    <col min="34" max="34" width="20.7109375" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="34" max="35" width="20.7109375" customWidth="1"/>
     <col min="36" max="36" width="19.7109375" customWidth="1"/>
     <col min="37" max="37" width="20.7109375" customWidth="1"/>
     <col min="38" max="38" width="22.7109375" customWidth="1"/>
@@ -1963,24 +1966,18 @@
     <col min="41" max="41" width="16.7109375" customWidth="1"/>
     <col min="42" max="42" width="9.7109375" customWidth="1"/>
     <col min="43" max="43" width="19.7109375" customWidth="1"/>
-    <col min="44" max="44" width="23.7109375" customWidth="1"/>
-    <col min="45" max="45" width="23.7109375" customWidth="1"/>
+    <col min="44" max="45" width="23.7109375" customWidth="1"/>
     <col min="46" max="46" width="18.7109375" customWidth="1"/>
     <col min="47" max="47" width="9.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
     <col min="49" max="49" width="14.7109375" customWidth="1"/>
-    <col min="50" max="50" width="19.7109375" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="50" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="18.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
-    <col min="54" max="54" width="19.7109375" customWidth="1"/>
-    <col min="55" max="55" width="19.7109375" customWidth="1"/>
-    <col min="56" max="56" width="19.7109375" customWidth="1"/>
-    <col min="57" max="57" width="19.7109375" customWidth="1"/>
-    <col min="58" max="58" width="19.7109375" customWidth="1"/>
+    <col min="54" max="58" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1">
+    <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,336 +1988,336 @@
         <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1">
+    <row r="2" spans="1:58" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="BF2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="4" customFormat="1">
+    <row r="3" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10815</v>
       </c>
@@ -2328,37 +2325,37 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>1.808951687183812</v>
+        <v>1.8089516871838121</v>
       </c>
       <c r="D3" s="4">
-        <v>0.04660704425117267</v>
+        <v>4.6607044251172673E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>2.732165266071587</v>
+        <v>2.7321652660715872</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0006330223164484731</v>
+        <v>6.3302231644847312E-4</v>
       </c>
       <c r="G3" s="4">
-        <v>376.7136790512164</v>
+        <v>376.71367905121639</v>
       </c>
       <c r="H3" s="4">
-        <v>0.05571081735009249</v>
+        <v>5.5710817350092492E-2</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>653.0994719846086</v>
+        <v>653.09947198460861</v>
       </c>
       <c r="K3" s="4">
-        <v>16.82689272845747</v>
+        <v>16.826892728457469</v>
       </c>
       <c r="L3" s="4">
-        <v>9.016974910833985</v>
+        <v>9.0169749108339854</v>
       </c>
       <c r="M3" s="4">
-        <v>0.2323193878854821</v>
+        <v>0.23231938788548209</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
@@ -2367,25 +2364,25 @@
         <v>13.70077882996717</v>
       </c>
       <c r="P3" s="4">
-        <v>0.00317436827844761</v>
+        <v>3.1743682784476099E-3</v>
       </c>
       <c r="Q3" s="4">
-        <v>10.22267533409451</v>
+        <v>10.222675334094509</v>
       </c>
       <c r="R3" s="4">
-        <v>0.00236851763714634</v>
+        <v>2.3685176371463401E-3</v>
       </c>
       <c r="S3" s="4">
         <v>0.8943995940355125</v>
       </c>
       <c r="T3" s="4">
-        <v>0.001522748921522226</v>
+        <v>1.5227489215222259E-3</v>
       </c>
       <c r="U3" s="4">
         <v>0.8943995940355125</v>
       </c>
       <c r="V3" s="4">
-        <v>0.001522748921522226</v>
+        <v>1.5227489215222259E-3</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
@@ -2394,67 +2391,67 @@
         <v>1.00264099212989</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.01617348409596557</v>
+        <v>1.6173484095965571E-2</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.0002447828233240856</v>
+        <v>2.4478282332408559E-4</v>
       </c>
       <c r="AA3" s="4">
-        <v>3.948562976252991E-06</v>
+        <v>3.9485629762529911E-6</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>223.0353759474117</v>
+        <v>223.03537594741169</v>
       </c>
       <c r="AD3" s="4">
-        <v>1.190423784091661</v>
+        <v>1.1904237840916609</v>
       </c>
       <c r="AE3" s="4">
         <v>10.18083768663694</v>
       </c>
       <c r="AF3" s="4">
-        <v>0.05433896426819274</v>
+        <v>5.4338964268192742E-2</v>
       </c>
       <c r="AG3" s="4">
-        <v>41591.30754512867</v>
+        <v>41591.307545128671</v>
       </c>
       <c r="AH3" s="4">
-        <v>706.6765352223009</v>
+        <v>706.67653522230091</v>
       </c>
       <c r="AI3" s="4">
-        <v>-105.6004059644875</v>
+        <v>-105.60040596448751</v>
       </c>
       <c r="AJ3" s="4">
-        <v>1.522748921522226</v>
+        <v>1.5227489215222261</v>
       </c>
       <c r="AK3" s="4">
-        <v>0.995907368072423</v>
+        <v>0.99590736807242297</v>
       </c>
       <c r="AL3" s="4">
-        <v>0.005320538510307428</v>
+        <v>5.3205385103074279E-3</v>
       </c>
       <c r="AM3" s="4">
-        <v>0.995907368072423</v>
+        <v>0.99590736807242297</v>
       </c>
       <c r="AN3" s="4">
-        <v>0.005320538510307429</v>
+        <v>5.3205385103074288E-3</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AR3" s="4">
-        <v>2.394508436629008E-05</v>
+        <v>2.3945084366290079E-5</v>
       </c>
       <c r="AS3" s="4">
-        <v>3.86295184826587E-07</v>
+        <v>3.8629518482658701E-7</v>
       </c>
       <c r="AT3" s="4">
         <v>8</v>
@@ -2463,37 +2460,37 @@
         <v>4</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11069</v>
       </c>
@@ -2504,130 +2501,130 @@
         <v>0.1561259601382454</v>
       </c>
       <c r="D4">
-        <v>0.003498507058711726</v>
+        <v>3.4985070587117261E-3</v>
       </c>
       <c r="E4">
         <v>0.2056506777876824</v>
       </c>
       <c r="F4">
-        <v>0.005813274281752906</v>
+        <v>5.8132742817529059E-3</v>
       </c>
       <c r="G4">
-        <v>28.35532110404344</v>
+        <v>28.355321104043441</v>
       </c>
       <c r="H4">
-        <v>0.06907448733665462</v>
+        <v>6.9074487336654625E-2</v>
       </c>
       <c r="I4">
         <v>0.3</v>
       </c>
       <c r="J4">
-        <v>9.130846047705491</v>
+        <v>9.1308460477054911</v>
       </c>
       <c r="K4">
-        <v>0.204606135466657</v>
+        <v>0.20460613546665701</v>
       </c>
       <c r="L4">
         <v>0.1260644254950315</v>
       </c>
       <c r="M4">
-        <v>0.002824881154013588</v>
+        <v>2.8248811540135879E-3</v>
       </c>
       <c r="N4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O4">
         <v>0.1670593940270178</v>
       </c>
       <c r="P4">
-        <v>0.004722386958651959</v>
+        <v>4.7223869586519593E-3</v>
       </c>
       <c r="Q4">
         <v>0.1246494062741441</v>
       </c>
       <c r="R4">
-        <v>0.003523553608110951</v>
+        <v>3.5235536081109509E-3</v>
       </c>
       <c r="S4">
-        <v>1.000177401964412</v>
+        <v>1.0001774019644121</v>
       </c>
       <c r="T4">
-        <v>0.002107527865453386</v>
+        <v>2.1075278654533861E-3</v>
       </c>
       <c r="U4">
-        <v>1.117483705503684</v>
+        <v>1.1174837055036839</v>
       </c>
       <c r="V4">
-        <v>0.002354710318303032</v>
+        <v>2.3547103183030318E-3</v>
       </c>
       <c r="W4">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="X4">
-        <v>0.03979791979528034</v>
+        <v>3.9797919795280343E-2</v>
       </c>
       <c r="Y4">
-        <v>0.0004860769488507339</v>
+        <v>4.8607694885073388E-4</v>
       </c>
       <c r="Z4">
-        <v>9.716186797050692E-06</v>
+        <v>9.7161867970506921E-6</v>
       </c>
       <c r="AA4">
-        <v>1.186698816688973E-07</v>
+        <v>1.1866988166889729E-7</v>
       </c>
       <c r="AB4">
         <v>0.05</v>
       </c>
       <c r="AC4">
-        <v>0.9875770013872089</v>
+        <v>0.98757700138720894</v>
       </c>
       <c r="AD4">
-        <v>0.05510486574116544</v>
+        <v>5.5104865741165437E-2</v>
       </c>
       <c r="AE4">
-        <v>0.04507967003651235</v>
+        <v>4.5079670036512351E-2</v>
       </c>
       <c r="AF4">
-        <v>0.002515357447093974</v>
+        <v>2.515357447093974E-3</v>
       </c>
       <c r="AG4">
-        <v>4639.646291093961</v>
+        <v>4639.6462910939608</v>
       </c>
       <c r="AH4">
         <v>265.0125382844775</v>
       </c>
       <c r="AI4">
-        <v>117.4837055036841</v>
+        <v>117.48370550368411</v>
       </c>
       <c r="AJ4">
-        <v>2.354710318303032</v>
+        <v>2.3547103183030318</v>
       </c>
       <c r="AK4">
-        <v>0.3616517028357734</v>
+        <v>0.36165170283577341</v>
       </c>
       <c r="AL4">
-        <v>0.02262126452992685</v>
+        <v>2.2621264529926851E-2</v>
       </c>
       <c r="AM4">
         <v>0.3632524699346566</v>
       </c>
       <c r="AN4">
-        <v>0.02272139229293945</v>
+        <v>2.272139229293945E-2</v>
       </c>
       <c r="AO4">
-        <v>42.5497</v>
+        <v>42.549700000000001</v>
       </c>
       <c r="AP4">
         <v>3.2721</v>
       </c>
       <c r="AQ4">
-        <v>7.690065969912831</v>
+        <v>7.6900659699128306</v>
       </c>
       <c r="AR4">
-        <v>7.794811934909401E-05</v>
+        <v>7.7948119349094009E-5</v>
       </c>
       <c r="AS4">
-        <v>2.400291142481419E-06</v>
+        <v>2.4002911424814192E-6</v>
       </c>
       <c r="AT4">
         <v>8</v>
@@ -2636,16 +2633,16 @@
         <v>4</v>
       </c>
       <c r="AV4">
-        <v>42.4896</v>
+        <v>42.489600000000003</v>
       </c>
       <c r="AW4">
         <v>3.2758697823</v>
       </c>
       <c r="AX4">
-        <v>3.234266259326698</v>
+        <v>3.2342662593266982</v>
       </c>
       <c r="AY4">
-        <v>7.709815536743108</v>
+        <v>7.7098155367431076</v>
       </c>
       <c r="AZ4" t="s">
         <v>26</v>
@@ -2654,22 +2651,22 @@
         <v>62.5</v>
       </c>
       <c r="BB4">
-        <v>132.4503486434629</v>
+        <v>132.45034864346289</v>
       </c>
       <c r="BC4">
-        <v>2.923467628252167</v>
+        <v>2.9234676282521672</v>
       </c>
       <c r="BD4">
-        <v>42431.60000000001</v>
+        <v>42431.600000000013</v>
       </c>
       <c r="BE4">
-        <v>1617.133129663349</v>
+        <v>1617.1331296633491</v>
       </c>
       <c r="BF4">
-        <v>7.61190093417377</v>
+        <v>7.6119009341737698</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="4" customFormat="1">
+    <row r="5" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10815</v>
       </c>
@@ -2677,37 +2674,37 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>1.868456204221887</v>
+        <v>1.8684562042218871</v>
       </c>
       <c r="D5" s="4">
-        <v>0.0561642595187938</v>
+        <v>5.6164259518793801E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>2.73261122757083</v>
+        <v>2.7326112275708301</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0007749168079447607</v>
+        <v>7.7491680794476074E-4</v>
       </c>
       <c r="G5" s="4">
         <v>376.7751686686936</v>
       </c>
       <c r="H5" s="4">
-        <v>0.04677048265314643</v>
+        <v>4.6770482653146428E-2</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>674.582836594952</v>
+        <v>674.58283659495203</v>
       </c>
       <c r="K5" s="4">
-        <v>20.2774062436326</v>
+        <v>20.277406243632601</v>
       </c>
       <c r="L5" s="4">
-        <v>9.313583571537865</v>
+        <v>9.3135835715378654</v>
       </c>
       <c r="M5" s="4">
-        <v>0.2799586758201094</v>
+        <v>0.27995867582010941</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -2716,40 +2713,40 @@
         <v>13.70301515876605</v>
       </c>
       <c r="P5" s="4">
-        <v>0.00388591566151516</v>
+        <v>3.8859156615151601E-3</v>
       </c>
       <c r="Q5" s="4">
-        <v>10.22434394458264</v>
+        <v>10.224343944582641</v>
       </c>
       <c r="R5" s="4">
-        <v>0.002899430366429596</v>
+        <v>2.899430366429596E-3</v>
       </c>
       <c r="S5" s="4">
-        <v>0.8956531772728639</v>
+        <v>0.89565317727286387</v>
       </c>
       <c r="T5" s="4">
-        <v>0.001189460449408623</v>
+        <v>1.189460449408623E-3</v>
       </c>
       <c r="U5" s="4">
-        <v>0.8956531772728639</v>
+        <v>0.89565317727286387</v>
       </c>
       <c r="V5" s="4">
-        <v>0.001189460449408623</v>
+        <v>1.189460449408623E-3</v>
       </c>
       <c r="W5" s="4">
         <v>0</v>
       </c>
       <c r="X5" s="4">
-        <v>0.9895126064587988</v>
+        <v>0.98951260645879879</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.01272028013973683</v>
+        <v>1.272028013973683E-2</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.0002415776847595527</v>
+        <v>2.415776847595527E-4</v>
       </c>
       <c r="AA5" s="4">
-        <v>3.105504473205003E-06</v>
+        <v>3.1055044732050029E-6</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
@@ -2764,46 +2761,46 @@
         <v>10.17607592492673</v>
       </c>
       <c r="AF5" s="4">
-        <v>0.07125635044366693</v>
+        <v>7.1256350443666933E-2</v>
       </c>
       <c r="AG5" s="4">
-        <v>42123.41026057596</v>
+        <v>42123.410260575962</v>
       </c>
       <c r="AH5" s="4">
-        <v>616.6244062487958</v>
+        <v>616.62440624879582</v>
       </c>
       <c r="AI5" s="4">
         <v>-104.3468227271361</v>
       </c>
       <c r="AJ5" s="4">
-        <v>1.189460449408622</v>
+        <v>1.1894604494086221</v>
       </c>
       <c r="AK5" s="4">
-        <v>0.9952791083792243</v>
+        <v>0.99527910837922429</v>
       </c>
       <c r="AL5" s="4">
-        <v>0.006974996180345858</v>
+        <v>6.9749961803458578E-3</v>
       </c>
       <c r="AM5" s="4">
-        <v>0.9952791083792243</v>
+        <v>0.99527910837922429</v>
       </c>
       <c r="AN5" s="4">
-        <v>0.006974996180345857</v>
+        <v>6.974996180345857E-3</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AR5" s="4">
-        <v>2.362769543639546E-05</v>
+        <v>2.3627695436395461E-5</v>
       </c>
       <c r="AS5" s="4">
-        <v>3.038102026375988E-07</v>
+        <v>3.0381020263759882E-7</v>
       </c>
       <c r="AT5" s="4">
         <v>8</v>
@@ -2812,37 +2809,37 @@
         <v>4</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AZ5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11070</v>
       </c>
@@ -2850,22 +2847,22 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0.02564128291718566</v>
+        <v>2.5641282917185659E-2</v>
       </c>
       <c r="D6">
-        <v>0.000169135034937475</v>
+        <v>1.69135034937475E-4</v>
       </c>
       <c r="E6">
-        <v>0.03411091781235923</v>
+        <v>3.4110917812359233E-2</v>
       </c>
       <c r="F6">
-        <v>3.807545732377011E-05</v>
+        <v>3.8075457323770112E-5</v>
       </c>
       <c r="G6">
-        <v>4.703247458885903</v>
+        <v>4.7032474588859028</v>
       </c>
       <c r="H6">
-        <v>0.005856295645930111</v>
+        <v>5.8562956459301107E-3</v>
       </c>
       <c r="I6">
         <v>0.3</v>
@@ -2874,109 +2871,109 @@
         <v>2.443014442041997</v>
       </c>
       <c r="K6">
-        <v>0.01611461229697633</v>
+        <v>1.6114612296976329E-2</v>
       </c>
       <c r="L6">
-        <v>0.03372931823655941</v>
+        <v>3.3729318236559412E-2</v>
       </c>
       <c r="M6">
-        <v>0.000222485334949217</v>
+        <v>2.2248533494921701E-4</v>
       </c>
       <c r="N6">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O6">
-        <v>0.04515339238703706</v>
+        <v>4.5153392387037063E-2</v>
       </c>
       <c r="P6">
-        <v>5.040134288714901E-05</v>
+        <v>5.0401342887149007E-5</v>
       </c>
       <c r="Q6">
-        <v>0.03369067381746507</v>
+        <v>3.3690673817465072E-2</v>
       </c>
       <c r="R6">
-        <v>3.760637049411683E-05</v>
+        <v>3.760637049411683E-5</v>
       </c>
       <c r="S6">
-        <v>0.9925477460699136</v>
+        <v>0.99254774606991358</v>
       </c>
       <c r="T6">
-        <v>0.004968873446402617</v>
+        <v>4.9688734464026166E-3</v>
       </c>
       <c r="U6">
-        <v>1.082859507738977</v>
+        <v>1.0828595077389771</v>
       </c>
       <c r="V6">
-        <v>0.005420990451586611</v>
+        <v>5.4209904515866107E-3</v>
       </c>
       <c r="W6">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="X6">
-        <v>0.1292485587723728</v>
+        <v>0.12924855877237279</v>
       </c>
       <c r="Y6">
-        <v>0.001712461790184083</v>
+        <v>1.7124617901840831E-3</v>
       </c>
       <c r="Z6">
-        <v>3.155449196193628E-05</v>
+        <v>3.155449196193628E-5</v>
       </c>
       <c r="AA6">
-        <v>4.180770935221986E-07</v>
+        <v>4.180770935221986E-7</v>
       </c>
       <c r="AB6">
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.2594041361358367</v>
+        <v>0.25940413613583668</v>
       </c>
       <c r="AD6">
-        <v>0.007213551214628482</v>
+        <v>7.213551214628482E-3</v>
       </c>
       <c r="AE6">
-        <v>0.01184095300587617</v>
+        <v>1.1840953005876171E-2</v>
       </c>
       <c r="AF6">
-        <v>0.0003292750925650976</v>
+        <v>3.2927509256509759E-4</v>
       </c>
       <c r="AG6">
-        <v>375.2541165980343</v>
+        <v>375.25411659803427</v>
       </c>
       <c r="AH6">
-        <v>11.55904155654805</v>
+        <v>11.559041556548051</v>
       </c>
       <c r="AI6">
-        <v>82.85950773897733</v>
+        <v>82.859507738977328</v>
       </c>
       <c r="AJ6">
-        <v>5.420990451586611</v>
+        <v>5.4209904515866114</v>
       </c>
       <c r="AK6">
-        <v>0.3514608544201299</v>
+        <v>0.35146085442012992</v>
       </c>
       <c r="AL6">
-        <v>0.009781349504306255</v>
+        <v>9.7813495043062547E-3</v>
       </c>
       <c r="AM6">
-        <v>0.353357141887835</v>
+        <v>0.35335714188783501</v>
       </c>
       <c r="AN6">
-        <v>0.009834124230848309</v>
+        <v>9.8341242308483089E-3</v>
       </c>
       <c r="AO6">
-        <v>42.8365</v>
+        <v>42.836500000000001</v>
       </c>
       <c r="AP6">
         <v>1.4881</v>
       </c>
       <c r="AQ6">
-        <v>3.473906598344869</v>
+        <v>3.4739065983448691</v>
       </c>
       <c r="AR6">
-        <v>0.0009365942673897665</v>
+        <v>9.3659426738976648E-4</v>
       </c>
       <c r="AS6">
-        <v>1.24532429890103E-05</v>
+        <v>1.24532429890103E-5</v>
       </c>
       <c r="AT6">
         <v>8</v>
@@ -2988,13 +2985,13 @@
         <v>42.0867</v>
       </c>
       <c r="AW6">
-        <v>1.5071081505</v>
+        <v>1.5071081504999999</v>
       </c>
       <c r="AX6">
-        <v>1.525039701817421</v>
+        <v>1.5250397018174211</v>
       </c>
       <c r="AY6">
-        <v>3.580960613447954</v>
+        <v>3.5809606134479539</v>
       </c>
       <c r="AZ6" t="s">
         <v>27</v>
@@ -3003,22 +3000,22 @@
         <v>99</v>
       </c>
       <c r="BB6">
-        <v>93.30910470522379</v>
+        <v>93.309104705223788</v>
       </c>
       <c r="BC6">
-        <v>6.117529707717037</v>
+        <v>6.1175297077170372</v>
       </c>
       <c r="BD6">
         <v>42028.7</v>
       </c>
       <c r="BE6">
-        <v>762.5198509087106</v>
+        <v>762.51985090871062</v>
       </c>
       <c r="BF6">
-        <v>3.623566831843365</v>
+        <v>3.6235668318433651</v>
       </c>
     </row>
-    <row r="7" spans="1:58" s="4" customFormat="1">
+    <row r="7" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10815</v>
       </c>
@@ -3026,79 +3023,79 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>1.951132635891098</v>
+        <v>1.9511326358910981</v>
       </c>
       <c r="D7" s="4">
-        <v>0.05093125325382505</v>
+        <v>5.0931253253825047E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>2.732135489862179</v>
+        <v>2.7321354898621788</v>
       </c>
       <c r="F7" s="4">
-        <v>0.001026890259182294</v>
+        <v>1.026890259182294E-3</v>
       </c>
       <c r="G7" s="4">
-        <v>376.7095734776871</v>
+        <v>376.70957347768712</v>
       </c>
       <c r="H7" s="4">
-        <v>0.06316374117983047</v>
+        <v>6.3163741179830465E-2</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>704.4321323231285</v>
+        <v>704.43213232312849</v>
       </c>
       <c r="K7" s="4">
-        <v>18.38809452085028</v>
+        <v>18.388094520850281</v>
       </c>
       <c r="L7" s="4">
-        <v>9.725695910059821</v>
+        <v>9.7256959100598213</v>
       </c>
       <c r="M7" s="4">
-        <v>0.2538740177644154</v>
+        <v>0.25387401776441543</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>13.70062951350211</v>
+        <v>13.700629513502109</v>
       </c>
       <c r="P7" s="4">
-        <v>0.00514946752980778</v>
+        <v>5.1494675298077797E-3</v>
       </c>
       <c r="Q7" s="4">
         <v>10.22256392336646</v>
       </c>
       <c r="R7" s="4">
-        <v>0.003842214764137807</v>
+        <v>3.8422147641378069E-3</v>
       </c>
       <c r="S7" s="4">
         <v>0.937544460973605</v>
       </c>
       <c r="T7" s="4">
-        <v>0.001339707136559375</v>
+        <v>1.339707136559375E-3</v>
       </c>
       <c r="U7" s="4">
         <v>0.937544460973605</v>
       </c>
       <c r="V7" s="4">
-        <v>0.001339707136559375</v>
+        <v>1.339707136559375E-3</v>
       </c>
       <c r="W7" s="4">
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.9398057896146806</v>
+        <v>0.93980578961468064</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.01199531106393225</v>
+        <v>1.199531106393225E-2</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.0002294423590935738</v>
+        <v>2.2944235909357381E-4</v>
       </c>
       <c r="AA7" s="4">
-        <v>2.928511931915502E-06</v>
+        <v>2.9285119319155022E-6</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
@@ -3110,49 +3107,49 @@
         <v>1.204190687935184</v>
       </c>
       <c r="AE7" s="4">
-        <v>10.16110497142133</v>
+        <v>10.161104971421331</v>
       </c>
       <c r="AF7" s="4">
-        <v>0.05496737854051648</v>
+        <v>5.4967378540516483E-2</v>
       </c>
       <c r="AG7" s="4">
-        <v>44286.09002959784</v>
+        <v>44286.090029597843</v>
       </c>
       <c r="AH7" s="4">
-        <v>613.9228987775402</v>
+        <v>613.92289877754024</v>
       </c>
       <c r="AI7" s="4">
-        <v>-62.455539026395</v>
+        <v>-62.455539026395002</v>
       </c>
       <c r="AJ7" s="4">
-        <v>1.339707136559375</v>
+        <v>1.3397071365593749</v>
       </c>
       <c r="AK7" s="4">
         <v>0.9939879121905365</v>
       </c>
       <c r="AL7" s="4">
-        <v>0.005390026869456891</v>
+        <v>5.3900268694568911E-3</v>
       </c>
       <c r="AM7" s="4">
         <v>0.9939879121905365</v>
       </c>
       <c r="AN7" s="4">
-        <v>0.00539002686945689</v>
+        <v>5.3900268694568902E-3</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AR7" s="4">
-        <v>2.244469790686471E-05</v>
+        <v>2.2444697906864709E-5</v>
       </c>
       <c r="AS7" s="4">
-        <v>2.865994691576706E-07</v>
+        <v>2.865994691576706E-7</v>
       </c>
       <c r="AT7" s="4">
         <v>8</v>
@@ -3161,37 +3158,37 @@
         <v>4</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AZ7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11071</v>
       </c>
@@ -3199,133 +3196,133 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>0.09969720717163566</v>
+        <v>9.969720717163566E-2</v>
       </c>
       <c r="D8">
-        <v>0.0004039300151177332</v>
+        <v>4.0393001511773317E-4</v>
       </c>
       <c r="E8">
-        <v>0.1302778757219377</v>
+        <v>0.13027787572193769</v>
       </c>
       <c r="F8">
-        <v>3.966757208055101E-05</v>
+        <v>3.9667572080551007E-5</v>
       </c>
       <c r="G8">
-        <v>17.96284378241649</v>
+        <v>17.962843782416488</v>
       </c>
       <c r="H8">
-        <v>0.005779478961750861</v>
+        <v>5.7794789617508606E-3</v>
       </c>
       <c r="I8">
         <v>0.3</v>
       </c>
       <c r="J8">
-        <v>4.012072321516031</v>
+        <v>4.0120723215160314</v>
       </c>
       <c r="K8">
-        <v>0.01625518386581723</v>
+        <v>1.625518386581723E-2</v>
       </c>
       <c r="L8">
-        <v>0.05539241266514772</v>
+        <v>5.5392412665147717E-2</v>
       </c>
       <c r="M8">
-        <v>0.0002244261270701526</v>
+        <v>2.2442612707015261E-4</v>
       </c>
       <c r="N8">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O8">
-        <v>0.07282321349103153</v>
+        <v>7.2823213491031533E-2</v>
       </c>
       <c r="P8">
-        <v>2.217352757929881E-05</v>
+        <v>2.217352757929881E-5</v>
       </c>
       <c r="Q8">
-        <v>0.05433618610614783</v>
+        <v>5.4336186106147828E-2</v>
       </c>
       <c r="R8">
-        <v>1.65445173787471E-05</v>
+        <v>1.65445173787471E-5</v>
       </c>
       <c r="S8">
-        <v>1.008558799757307</v>
+        <v>1.0085587997573069</v>
       </c>
       <c r="T8">
-        <v>0.001978891721470877</v>
+        <v>1.9788917214708769E-3</v>
       </c>
       <c r="U8">
-        <v>1.08336085775384</v>
+        <v>1.0833608577538401</v>
       </c>
       <c r="V8">
-        <v>0.002125660728249602</v>
+        <v>2.1256607282496018E-3</v>
       </c>
       <c r="W8">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="X8">
-        <v>0.0450243984590227</v>
+        <v>4.5024398459022702E-2</v>
       </c>
       <c r="Y8">
-        <v>0.00025194700064077</v>
+        <v>2.5194700064077002E-4</v>
       </c>
       <c r="Z8">
-        <v>1.099216914107619E-05</v>
+        <v>1.099216914107619E-5</v>
       </c>
       <c r="AA8">
-        <v>6.150985111218492E-08</v>
+        <v>6.1509851112184923E-8</v>
       </c>
       <c r="AB8">
         <v>0.05</v>
       </c>
       <c r="AC8">
-        <v>0.3359162369268783</v>
+        <v>0.33591623692687828</v>
       </c>
       <c r="AD8">
-        <v>0.003366389133967316</v>
+        <v>3.366389133967316E-3</v>
       </c>
       <c r="AE8">
-        <v>0.01533348093292962</v>
+        <v>1.5333480932929621E-2</v>
       </c>
       <c r="AF8">
-        <v>0.0001536646875743179</v>
+        <v>1.536646875743179E-4</v>
       </c>
       <c r="AG8">
-        <v>1394.945868839532</v>
+        <v>1394.9458688395321</v>
       </c>
       <c r="AH8">
-        <v>16.01113381052805</v>
+        <v>16.011133810528051</v>
       </c>
       <c r="AI8">
-        <v>83.36085775384028</v>
+        <v>83.360857753840278</v>
       </c>
       <c r="AJ8">
-        <v>2.125660728249602</v>
+        <v>2.1256607282496018</v>
       </c>
       <c r="AK8">
-        <v>0.282196488781437</v>
+        <v>0.28219648878143699</v>
       </c>
       <c r="AL8">
-        <v>0.002829340970296258</v>
+        <v>2.8293409702962579E-3</v>
       </c>
       <c r="AM8">
-        <v>0.2841002000831769</v>
+        <v>0.28410020008317688</v>
       </c>
       <c r="AN8">
-        <v>0.002848427842726483</v>
+        <v>2.8484278427264829E-3</v>
       </c>
       <c r="AO8">
         <v>33.0291</v>
       </c>
       <c r="AP8">
-        <v>0.3887</v>
+        <v>0.38869999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1.176841028063132</v>
+        <v>1.1768410280631321</v>
       </c>
       <c r="AR8">
-        <v>0.0002022992397663422</v>
+        <v>2.0229923976634219E-4</v>
       </c>
       <c r="AS8">
-        <v>1.133698315035224E-06</v>
+        <v>1.133698315035224E-6</v>
       </c>
       <c r="AT8">
         <v>8</v>
@@ -3337,13 +3334,13 @@
         <v>32.8673</v>
       </c>
       <c r="AW8">
-        <v>0.4023434377</v>
+        <v>0.40234343769999997</v>
       </c>
       <c r="AX8">
-        <v>0.4013648915915398</v>
+        <v>0.40136489159153982</v>
       </c>
       <c r="AY8">
-        <v>1.224145085540948</v>
+        <v>1.2241450855409479</v>
       </c>
       <c r="AZ8" t="s">
         <v>28</v>
@@ -3352,22 +3349,22 @@
         <v>98.5</v>
       </c>
       <c r="BB8">
-        <v>91.46280257064531</v>
+        <v>91.462802570645309</v>
       </c>
       <c r="BC8">
-        <v>2.334567290311991</v>
+        <v>2.3345672903119912</v>
       </c>
       <c r="BD8">
-        <v>32809.3</v>
+        <v>32809.300000000003</v>
       </c>
       <c r="BE8">
-        <v>200.6824457957699</v>
+        <v>200.68244579576989</v>
       </c>
       <c r="BF8">
-        <v>1.221167822095334</v>
+        <v>1.2211678220953339</v>
       </c>
     </row>
-    <row r="9" spans="1:58" s="4" customFormat="1">
+    <row r="9" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>10815</v>
       </c>
@@ -3375,28 +3372,28 @@
         <v>25</v>
       </c>
       <c r="C9" s="4">
-        <v>1.91296454162027</v>
+        <v>1.9129645416202701</v>
       </c>
       <c r="D9" s="4">
-        <v>0.03930551778390989</v>
+        <v>3.9305517783909887E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>2.731930548347546</v>
+        <v>2.7319305483475458</v>
       </c>
       <c r="F9" s="4">
-        <v>0.0008325817346075255</v>
+        <v>8.3258173460752552E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>376.681315936708</v>
+        <v>376.68131593670802</v>
       </c>
       <c r="H9" s="4">
-        <v>0.05145708546590666</v>
+        <v>5.145708546590666E-2</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>690.652017358453</v>
+        <v>690.65201735845301</v>
       </c>
       <c r="K9" s="4">
         <v>14.19076755483562</v>
@@ -3414,40 +3411,40 @@
         <v>13.69960180906566</v>
       </c>
       <c r="P9" s="4">
-        <v>0.004175083530041938</v>
+        <v>4.1750835300419379E-3</v>
       </c>
       <c r="Q9" s="4">
         <v>10.22179711376215</v>
       </c>
       <c r="R9" s="4">
-        <v>0.003115189577908559</v>
+        <v>3.1151895779085591E-3</v>
       </c>
       <c r="S9" s="4">
         <v>0.924362940496258</v>
       </c>
       <c r="T9" s="4">
-        <v>0.001344655020757129</v>
+        <v>1.344655020757129E-3</v>
       </c>
       <c r="U9" s="4">
         <v>0.924362940496258</v>
       </c>
       <c r="V9" s="4">
-        <v>0.001344655020757129</v>
+        <v>1.344655020757129E-3</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>0.9499964206048953</v>
+        <v>0.94999642060489531</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.01298141626529335</v>
+        <v>1.2981416265293351E-2</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.0002319302799394387</v>
+        <v>2.3193027993943869E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>3.169257739416325E-06</v>
+        <v>3.1692577394163252E-6</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
@@ -3456,52 +3453,52 @@
         <v>222.2779159357506</v>
       </c>
       <c r="AD9" s="4">
-        <v>0.8901758797880204</v>
+        <v>0.89017587978802037</v>
       </c>
       <c r="AE9" s="4">
-        <v>10.14626210686587</v>
+        <v>10.146262106865869</v>
       </c>
       <c r="AF9" s="4">
-        <v>0.04063362641995379</v>
+        <v>4.0633626419953793E-2</v>
       </c>
       <c r="AG9" s="4">
-        <v>43747.03514140219</v>
+        <v>43747.035141402193</v>
       </c>
       <c r="AH9" s="4">
-        <v>622.934364669362</v>
+        <v>622.93436466936203</v>
       </c>
       <c r="AI9" s="4">
-        <v>-75.63705950374199</v>
+        <v>-75.637059503741995</v>
       </c>
       <c r="AJ9" s="4">
-        <v>1.344655020757129</v>
+        <v>1.3446550207571291</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.9926103985379849</v>
+        <v>0.99261039853798494</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.003986687594578638</v>
+        <v>3.9866875945786381E-3</v>
       </c>
       <c r="AM9" s="4">
-        <v>0.9926103985379849</v>
+        <v>0.99261039853798494</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.003986687594578638</v>
+        <v>3.9866875945786381E-3</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AR9" s="4">
-        <v>2.268977532602155E-05</v>
+        <v>2.2689775326021551E-5</v>
       </c>
       <c r="AS9" s="4">
-        <v>3.101260782117106E-07</v>
+        <v>3.1012607821171059E-7</v>
       </c>
       <c r="AT9" s="4">
         <v>8</v>
@@ -3510,37 +3507,37 @@
         <v>4</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AZ9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="BE9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11072</v>
       </c>
@@ -3548,22 +3545,22 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>0.2949953497862585</v>
+        <v>0.29499534978625852</v>
       </c>
       <c r="D10">
-        <v>0.0007236711945133104</v>
+        <v>7.2367119451331036E-4</v>
       </c>
       <c r="E10">
-        <v>0.38626528275149</v>
+        <v>0.38626528275149002</v>
       </c>
       <c r="F10">
-        <v>3.23757419494403E-05</v>
+        <v>3.2375741949440302E-5</v>
       </c>
       <c r="G10">
-        <v>53.2586434510582</v>
+        <v>53.258643451058198</v>
       </c>
       <c r="H10">
-        <v>0.007255295601145285</v>
+        <v>7.2552956011452847E-3</v>
       </c>
       <c r="I10">
         <v>0.3</v>
@@ -3572,109 +3569,109 @@
         <v>14.71610698448738</v>
       </c>
       <c r="K10">
-        <v>0.03610098507575096</v>
+        <v>3.6100985075750963E-2</v>
       </c>
       <c r="L10">
         <v>0.2031769633208319</v>
       </c>
       <c r="M10">
-        <v>0.0004984258763757048</v>
+        <v>4.9842587637570479E-4</v>
       </c>
       <c r="N10">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O10">
-        <v>0.2676448133408786</v>
+        <v>0.26764481334087858</v>
       </c>
       <c r="P10">
-        <v>2.243328561424273E-05</v>
+        <v>2.243328561424273E-5</v>
       </c>
       <c r="Q10">
         <v>0.1997000364427228</v>
       </c>
       <c r="R10">
-        <v>1.673833278804676E-05</v>
+        <v>1.6738332788046762E-5</v>
       </c>
       <c r="S10">
-        <v>1.012658345577013</v>
+        <v>1.0126583455770131</v>
       </c>
       <c r="T10">
-        <v>0.001617865900988797</v>
+        <v>1.617865900988797E-3</v>
       </c>
       <c r="U10">
         <v>1.092806065106275</v>
       </c>
       <c r="V10">
-        <v>0.001745913295289905</v>
+        <v>1.7459132952899049E-3</v>
       </c>
       <c r="W10">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="X10">
         <v>1.234646251141704</v>
       </c>
       <c r="Y10">
-        <v>0.00330889034359273</v>
+        <v>3.3088903435927299E-3</v>
       </c>
       <c r="Z10">
-        <v>0.0003014241363890024</v>
+        <v>3.0142413638900242E-4</v>
       </c>
       <c r="AA10">
-        <v>8.078260581126371E-07</v>
+        <v>8.0782605811263706E-7</v>
       </c>
       <c r="AB10">
         <v>0.05</v>
       </c>
       <c r="AC10">
-        <v>3.369534097393643</v>
+        <v>3.3695340973936432</v>
       </c>
       <c r="AD10">
-        <v>0.01193084130234293</v>
+        <v>1.193084130234293E-2</v>
       </c>
       <c r="AE10">
-        <v>0.1538082449003153</v>
+        <v>0.15380824490031531</v>
       </c>
       <c r="AF10">
-        <v>0.0005446040039532439</v>
+        <v>5.4460400395324395E-4</v>
       </c>
       <c r="AG10">
-        <v>510.2718274087326</v>
+        <v>510.27182740873258</v>
       </c>
       <c r="AH10">
         <v>2.265964347924438</v>
       </c>
       <c r="AI10">
-        <v>92.8060651062752</v>
+        <v>92.806065106275199</v>
       </c>
       <c r="AJ10">
         <v>1.745913295289905</v>
       </c>
       <c r="AK10">
-        <v>0.7701963787294051</v>
+        <v>0.77019637872940505</v>
       </c>
       <c r="AL10">
-        <v>0.002727874160311591</v>
+        <v>2.7278741603115912E-3</v>
       </c>
       <c r="AM10">
-        <v>0.7754264711304344</v>
+        <v>0.77542647113043439</v>
       </c>
       <c r="AN10">
-        <v>0.00274639805150457</v>
+        <v>2.7463980515045699E-3</v>
       </c>
       <c r="AO10">
-        <v>131.1659</v>
+        <v>131.16589999999999</v>
       </c>
       <c r="AP10">
-        <v>1.0009</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="AQ10">
-        <v>0.7630794284185142</v>
+        <v>0.76307942841851417</v>
       </c>
       <c r="AR10">
-        <v>0.00150938448364007</v>
+        <v>1.5093844836400699E-3</v>
       </c>
       <c r="AS10">
-        <v>4.047175193353314E-06</v>
+        <v>4.0471751933533136E-6</v>
       </c>
       <c r="AT10">
         <v>8</v>
@@ -3683,37 +3680,37 @@
         <v>4</v>
       </c>
       <c r="AV10">
-        <v>129.9987</v>
+        <v>129.99870000000001</v>
       </c>
       <c r="AW10">
-        <v>1.1411216587</v>
+        <v>1.1411216586999999</v>
       </c>
       <c r="AX10">
         <v>1.150472656158166</v>
       </c>
       <c r="AY10">
-        <v>0.8777946692543847</v>
+        <v>0.87779466925438465</v>
       </c>
       <c r="AZ10" t="s">
         <v>29</v>
       </c>
       <c r="BB10">
-        <v>133.9378820563736</v>
+        <v>133.93788205637361</v>
       </c>
       <c r="BC10">
-        <v>2.556355452016554</v>
+        <v>2.5563554520165539</v>
       </c>
       <c r="BD10">
         <v>129940.7</v>
       </c>
       <c r="BE10">
-        <v>575.2363280790833</v>
+        <v>575.23632807908325</v>
       </c>
       <c r="BF10">
-        <v>0.8849878161536741</v>
+        <v>0.88498781615367406</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="4" customFormat="1">
+    <row r="11" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10815</v>
       </c>
@@ -3724,19 +3721,19 @@
         <v>1.998339578541245</v>
       </c>
       <c r="D11" s="4">
-        <v>0.05928795651574415</v>
+        <v>5.9287956515744152E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>2.731666440643729</v>
+        <v>2.7316664406437292</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0008159693092260687</v>
+        <v>8.1596930922606874E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>376.6449005023979</v>
+        <v>376.64490050239789</v>
       </c>
       <c r="H11" s="4">
-        <v>0.06191280037539941</v>
+        <v>6.191280037539941E-2</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -3748,10 +3745,10 @@
         <v>21.40517813151768</v>
       </c>
       <c r="L11" s="4">
-        <v>9.961005576155012</v>
+        <v>9.9610055761550118</v>
       </c>
       <c r="M11" s="4">
-        <v>0.29552918422567</v>
+        <v>0.29552918422566998</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
@@ -3760,40 +3757,40 @@
         <v>13.69827740849508</v>
       </c>
       <c r="P11" s="4">
-        <v>0.004091778479352991</v>
+        <v>4.0917784793529912E-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>10.22080892781934</v>
+        <v>10.220808927819339</v>
       </c>
       <c r="R11" s="4">
-        <v>0.00305303249199015</v>
+        <v>3.0530324919901498E-3</v>
       </c>
       <c r="S11" s="4">
-        <v>0.9289546387368545</v>
+        <v>0.92895463873685447</v>
       </c>
       <c r="T11" s="4">
-        <v>0.001324340229563539</v>
+        <v>1.324340229563539E-3</v>
       </c>
       <c r="U11" s="4">
-        <v>0.9289546387368545</v>
+        <v>0.92895463873685447</v>
       </c>
       <c r="V11" s="4">
-        <v>0.001324340229563539</v>
+        <v>1.324340229563539E-3</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <v>0.9589345068606024</v>
+        <v>0.95893450686060244</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.01293058331639322</v>
+        <v>1.293058331639322E-2</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.000234112406947969</v>
+        <v>2.34112406947969E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>3.156847482058674E-06</v>
+        <v>3.1568474820586741E-6</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
@@ -3808,46 +3805,46 @@
         <v>10.15846211536968</v>
       </c>
       <c r="AF11" s="4">
-        <v>0.05691072064393761</v>
+        <v>5.691072064393761E-2</v>
       </c>
       <c r="AG11" s="4">
-        <v>43391.38727332542</v>
+        <v>43391.387273325417</v>
       </c>
       <c r="AH11" s="4">
-        <v>633.5925864624786</v>
+        <v>633.59258646247861</v>
       </c>
       <c r="AI11" s="4">
-        <v>-71.04536126314554</v>
+        <v>-71.045361263145537</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1.324340229563539</v>
+        <v>1.3243402295635389</v>
       </c>
       <c r="AK11" s="4">
-        <v>0.993900011937415</v>
+        <v>0.99390001193741495</v>
       </c>
       <c r="AL11" s="4">
-        <v>0.00557603210240126</v>
+        <v>5.5760321024012601E-3</v>
       </c>
       <c r="AM11" s="4">
-        <v>0.993900011937415</v>
+        <v>0.99390001193741495</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.005576032102401261</v>
+        <v>5.5760321024012609E-3</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AR11" s="4">
-        <v>2.290546752231655E-05</v>
+        <v>2.2905467522316551E-5</v>
       </c>
       <c r="AS11" s="4">
-        <v>3.089405128145099E-07</v>
+        <v>3.0894051281450992E-7</v>
       </c>
       <c r="AT11" s="4">
         <v>8</v>
@@ -3856,37 +3853,37 @@
         <v>4</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AZ11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="BE11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BF11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11074</v>
       </c>
@@ -3894,79 +3891,79 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.3876068192742979</v>
+        <v>0.38760681927429791</v>
       </c>
       <c r="D12">
-        <v>0.001302127731941823</v>
+        <v>1.3021277319418231E-3</v>
       </c>
       <c r="E12">
-        <v>0.449309322731185</v>
+        <v>0.44930932273118501</v>
       </c>
       <c r="F12">
-        <v>4.423491043471031E-05</v>
+        <v>4.4234910434710312E-5</v>
       </c>
       <c r="G12">
-        <v>61.95121872749852</v>
+        <v>61.951218727498521</v>
       </c>
       <c r="H12">
-        <v>0.008731674533346681</v>
+        <v>8.7316745333466811E-3</v>
       </c>
       <c r="I12">
         <v>0.3</v>
       </c>
       <c r="J12">
-        <v>21.17640687840741</v>
+        <v>21.176406878407409</v>
       </c>
       <c r="K12">
-        <v>0.07114009684061899</v>
+        <v>7.1140096840618991E-2</v>
       </c>
       <c r="L12">
-        <v>0.2923706689640562</v>
+        <v>0.29237066896405622</v>
       </c>
       <c r="M12">
-        <v>0.0009821910687156073</v>
+        <v>9.821910687156073E-4</v>
       </c>
       <c r="N12">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O12">
-        <v>0.3409488456189519</v>
+        <v>0.34094884561895189</v>
       </c>
       <c r="P12">
-        <v>3.356672315877018E-05</v>
+        <v>3.3566723158770181E-5</v>
       </c>
       <c r="Q12">
-        <v>0.2543949798440188</v>
+        <v>0.25439497984401882</v>
       </c>
       <c r="R12">
-        <v>2.504541655186774E-05</v>
+        <v>2.5045416551867742E-5</v>
       </c>
       <c r="S12">
-        <v>1.083893378308567</v>
+        <v>1.0838933783085669</v>
       </c>
       <c r="T12">
-        <v>0.001280124441955429</v>
+        <v>1.280124441955429E-3</v>
       </c>
       <c r="U12">
         <v>1.15723723627016</v>
       </c>
       <c r="V12">
-        <v>0.001366746675399144</v>
+        <v>1.366746675399144E-3</v>
       </c>
       <c r="W12">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="X12">
-        <v>26.74781696234657</v>
+        <v>26.747816962346569</v>
       </c>
       <c r="Y12">
-        <v>0.06480549778298191</v>
+        <v>6.4805497782981905E-2</v>
       </c>
       <c r="Z12">
-        <v>0.006530160052493508</v>
+        <v>6.5301600524935079E-3</v>
       </c>
       <c r="AA12">
-        <v>1.582148828818884E-05</v>
+        <v>1.582148828818884E-5</v>
       </c>
       <c r="AB12">
         <v>0.05</v>
@@ -3975,52 +3972,52 @@
         <v>3.676084993755556</v>
       </c>
       <c r="AD12">
-        <v>0.01235994213019517</v>
+        <v>1.2359942130195169E-2</v>
       </c>
       <c r="AE12">
-        <v>0.1678012937845854</v>
+        <v>0.16780129378458539</v>
       </c>
       <c r="AF12">
-        <v>0.0005641910576258205</v>
+        <v>5.6419105762582048E-4</v>
       </c>
       <c r="AG12">
-        <v>25.69635237661769</v>
+        <v>25.696352376617689</v>
       </c>
       <c r="AH12">
-        <v>0.1064923684187035</v>
+        <v>0.10649236841870351</v>
       </c>
       <c r="AI12">
-        <v>157.2372362701597</v>
+        <v>157.23723627015971</v>
       </c>
       <c r="AJ12">
         <v>1.366746675399144</v>
       </c>
       <c r="AK12">
-        <v>0.6596092968794908</v>
+        <v>0.65960929687949077</v>
       </c>
       <c r="AL12">
-        <v>0.002218726452917752</v>
+        <v>2.2187264529177522E-3</v>
       </c>
       <c r="AM12">
-        <v>0.6636086338400468</v>
+        <v>0.66360863384004676</v>
       </c>
       <c r="AN12">
-        <v>0.002232179014533388</v>
+        <v>2.2321790145333879E-3</v>
       </c>
       <c r="AO12">
-        <v>90.5881</v>
+        <v>90.588099999999997</v>
       </c>
       <c r="AP12">
-        <v>0.5085</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="AQ12">
-        <v>0.5613320071841665</v>
+        <v>0.56133200718416654</v>
       </c>
       <c r="AR12">
-        <v>0.02566937467279208</v>
+        <v>2.5669374672792081E-2</v>
       </c>
       <c r="AS12">
-        <v>6.224393623280456E-05</v>
+        <v>6.224393623280456E-5</v>
       </c>
       <c r="AT12">
         <v>8</v>
@@ -4029,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="AV12">
-        <v>70.06659999999999</v>
+        <v>70.066599999999994</v>
       </c>
       <c r="AW12">
         <v>11.6261841909</v>
@@ -4044,22 +4041,22 @@
         <v>30</v>
       </c>
       <c r="BB12">
-        <v>191.6149468299761</v>
+        <v>191.61494682997611</v>
       </c>
       <c r="BC12">
         <v>6.503733183692689</v>
       </c>
       <c r="BD12">
-        <v>70008.59999999999</v>
+        <v>70008.599999999991</v>
       </c>
       <c r="BE12">
-        <v>5681.577063800579</v>
+        <v>5681.5770638005788</v>
       </c>
       <c r="BF12">
         <v>16.21764739205436</v>
       </c>
     </row>
-    <row r="13" spans="1:58" s="4" customFormat="1">
+    <row r="13" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10815</v>
       </c>
@@ -4067,85 +4064,85 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>1.943086602579645</v>
+        <v>1.9430866025796449</v>
       </c>
       <c r="D13" s="4">
-        <v>0.05637288976667573</v>
+        <v>5.6372889766675732E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>2.733315956497029</v>
+        <v>2.7333159564970289</v>
       </c>
       <c r="F13" s="4">
-        <v>0.000846993368147276</v>
+        <v>8.46993368147276E-4</v>
       </c>
       <c r="G13" s="4">
         <v>376.8723373977669</v>
       </c>
       <c r="H13" s="4">
-        <v>0.06605231593164765</v>
+        <v>6.6052315931647648E-2</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>701.5272122279649</v>
+        <v>701.52721222796492</v>
       </c>
       <c r="K13" s="4">
         <v>20.35272959565857</v>
       </c>
       <c r="L13" s="4">
-        <v>9.685589321799274</v>
+        <v>9.6855893217992737</v>
       </c>
       <c r="M13" s="4">
-        <v>0.2809986227264422</v>
+        <v>0.28099862272644222</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>13.70654910866024</v>
+        <v>13.706549108660241</v>
       </c>
       <c r="P13" s="4">
-        <v>0.004247352439305455</v>
+        <v>4.2473524393054551E-3</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.22698075982239</v>
+        <v>10.226980759822389</v>
       </c>
       <c r="R13" s="4">
-        <v>0.003169112176420562</v>
+        <v>3.1691121764205622E-3</v>
       </c>
       <c r="S13" s="4">
-        <v>0.9442885379207102</v>
+        <v>0.94428853792071021</v>
       </c>
       <c r="T13" s="4">
-        <v>0.001278282583173604</v>
+        <v>1.278282583173604E-3</v>
       </c>
       <c r="U13" s="4">
-        <v>0.9442885379207102</v>
+        <v>0.94428853792071021</v>
       </c>
       <c r="V13" s="4">
-        <v>0.001278282583173604</v>
+        <v>1.278282583173604E-3</v>
       </c>
       <c r="W13" s="4">
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.9555581947770144</v>
+        <v>0.95555819477701442</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.01236733738987318</v>
+        <v>1.236733738987318E-2</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.0002332881206772788</v>
+        <v>2.332881206772788E-4</v>
       </c>
       <c r="AA13" s="4">
-        <v>3.019337716148858E-06</v>
+        <v>3.0193377161488581E-6</v>
       </c>
       <c r="AB13" s="4">
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>222.7124321127286</v>
+        <v>222.71243211272861</v>
       </c>
       <c r="AD13" s="4">
         <v>1.011920907845558</v>
@@ -4154,46 +4151,46 @@
         <v>10.16609635356885</v>
       </c>
       <c r="AF13" s="4">
-        <v>0.04619088999100762</v>
+        <v>4.6190889991007622E-2</v>
       </c>
       <c r="AG13" s="4">
-        <v>43577.42830648548</v>
+        <v>43577.428306485483</v>
       </c>
       <c r="AH13" s="4">
         <v>597.7474533991284</v>
       </c>
       <c r="AI13" s="4">
-        <v>-55.71146207928979</v>
+        <v>-55.711462079289788</v>
       </c>
       <c r="AJ13" s="4">
         <v>1.278282583173604</v>
       </c>
       <c r="AK13" s="4">
-        <v>0.9940466881004874</v>
+        <v>0.99404668810048735</v>
       </c>
       <c r="AL13" s="4">
-        <v>0.004527063337151084</v>
+        <v>4.5270633371510844E-3</v>
       </c>
       <c r="AM13" s="4">
-        <v>0.9940466881004874</v>
+        <v>0.99404668810048735</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.004527063337151084</v>
+        <v>4.5270633371510844E-3</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AR13" s="4">
-        <v>2.281104522986609E-05</v>
+        <v>2.2811045229866089E-5</v>
       </c>
       <c r="AS13" s="4">
-        <v>2.95317169071814E-07</v>
+        <v>2.9531716907181402E-7</v>
       </c>
       <c r="AT13" s="4">
         <v>8</v>
@@ -4202,34 +4199,34 @@
         <v>4</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AZ13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4238,35 +4235,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,111 +4270,111 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="4" customFormat="1">
+    <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10815</v>
       </c>
@@ -4389,111 +4385,111 @@
         <v>13.70077882996717</v>
       </c>
       <c r="D3" s="4">
-        <v>0.00317436827844761</v>
+        <v>3.1743682784476099E-3</v>
       </c>
       <c r="E3" s="4">
         <v>1.00264099212989</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01617348409596557</v>
+        <v>1.6173484095965571E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>0.995907368072423</v>
+        <v>0.99590736807242297</v>
       </c>
       <c r="H3" s="4">
-        <v>0.005320538510307429</v>
+        <v>5.3205385103074288E-3</v>
       </c>
       <c r="I3" s="4">
-        <v>41591.30754512867</v>
+        <v>41591.307545128671</v>
       </c>
       <c r="J3" s="4">
-        <v>706.6765352223009</v>
+        <v>706.67653522230091</v>
       </c>
       <c r="K3" s="4">
-        <v>-105.6004059644875</v>
+        <v>-105.60040596448751</v>
       </c>
       <c r="L3" s="4">
-        <v>1.522748921522226</v>
+        <v>1.5227489215222261</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>11069</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.1670593940270178</v>
       </c>
-      <c r="D4">
-        <v>0.004722386958651959</v>
-      </c>
-      <c r="E4">
-        <v>0.03979791979528034</v>
-      </c>
-      <c r="F4">
-        <v>0.0004860769488507339</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="6">
+        <v>4.7223869586519593E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.9797919795280343E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.8607694885073388E-4</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.3632524699346566</v>
       </c>
-      <c r="H4">
-        <v>0.02272139229293945</v>
-      </c>
-      <c r="I4">
-        <v>4639.646291093961</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="6">
+        <v>2.272139229293945E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4639.6462910939608</v>
+      </c>
+      <c r="J4" s="6">
         <v>265.0125382844775</v>
       </c>
-      <c r="K4">
-        <v>117.4837055036841</v>
-      </c>
-      <c r="L4">
-        <v>2.354710318303032</v>
-      </c>
-      <c r="M4">
-        <v>42.5497</v>
-      </c>
-      <c r="N4">
+      <c r="K4" s="6">
+        <v>117.48370550368411</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2.3547103183030318</v>
+      </c>
+      <c r="M4" s="6">
+        <v>42.549700000000001</v>
+      </c>
+      <c r="N4" s="6">
         <v>3.2721</v>
       </c>
-      <c r="O4">
-        <v>42.4896</v>
-      </c>
-      <c r="P4">
+      <c r="O4" s="6">
+        <v>42.489600000000003</v>
+      </c>
+      <c r="P4" s="6">
         <v>3.2758697823</v>
       </c>
       <c r="Q4">
-        <v>132.4503486434629</v>
+        <v>132.45034864346289</v>
       </c>
       <c r="R4">
-        <v>2.923467628252167</v>
+        <v>2.9234676282521672</v>
       </c>
       <c r="S4">
         <v>62.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="4" customFormat="1">
+    <row r="5" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10815</v>
       </c>
@@ -4504,111 +4500,111 @@
         <v>13.70301515876605</v>
       </c>
       <c r="D5" s="4">
-        <v>0.00388591566151516</v>
+        <v>3.8859156615151601E-3</v>
       </c>
       <c r="E5" s="4">
-        <v>0.9895126064587988</v>
+        <v>0.98951260645879879</v>
       </c>
       <c r="F5" s="4">
-        <v>0.01272028013973683</v>
+        <v>1.272028013973683E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9952791083792243</v>
+        <v>0.99527910837922429</v>
       </c>
       <c r="H5" s="4">
-        <v>0.006974996180345857</v>
+        <v>6.974996180345857E-3</v>
       </c>
       <c r="I5" s="4">
-        <v>42123.41026057596</v>
+        <v>42123.410260575962</v>
       </c>
       <c r="J5" s="4">
-        <v>616.6244062487958</v>
+        <v>616.62440624879582</v>
       </c>
       <c r="K5" s="4">
         <v>-104.3468227271361</v>
       </c>
       <c r="L5" s="4">
-        <v>1.189460449408622</v>
+        <v>1.1894604494086221</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>11070</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0.04515339238703706</v>
-      </c>
-      <c r="D6">
-        <v>5.040134288714901E-05</v>
-      </c>
-      <c r="E6">
-        <v>0.1292485587723728</v>
-      </c>
-      <c r="F6">
-        <v>0.001712461790184083</v>
-      </c>
-      <c r="G6">
-        <v>0.353357141887835</v>
-      </c>
-      <c r="H6">
-        <v>0.009834124230848309</v>
-      </c>
-      <c r="I6">
-        <v>375.2541165980343</v>
-      </c>
-      <c r="J6">
-        <v>11.55904155654805</v>
-      </c>
-      <c r="K6">
-        <v>82.85950773897733</v>
-      </c>
-      <c r="L6">
-        <v>5.420990451586611</v>
-      </c>
-      <c r="M6">
-        <v>42.8365</v>
-      </c>
-      <c r="N6">
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.5153392387037063E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.0401342887149007E-5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.12924855877237279</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.7124617901840831E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.35335714188783501</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9.8341242308483089E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>375.25411659803427</v>
+      </c>
+      <c r="J6" s="5">
+        <v>11.559041556548051</v>
+      </c>
+      <c r="K6" s="5">
+        <v>82.859507738977328</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5.4209904515866114</v>
+      </c>
+      <c r="M6" s="5">
+        <v>42.836500000000001</v>
+      </c>
+      <c r="N6" s="5">
         <v>1.4881</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="5">
         <v>42.0867</v>
       </c>
-      <c r="P6">
-        <v>1.5071081505</v>
+      <c r="P6" s="5">
+        <v>1.5071081504999999</v>
       </c>
       <c r="Q6">
-        <v>93.30910470522379</v>
+        <v>93.309104705223788</v>
       </c>
       <c r="R6">
-        <v>6.117529707717037</v>
+        <v>6.1175297077170372</v>
       </c>
       <c r="S6">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1">
+    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10815</v>
       </c>
@@ -4616,114 +4612,114 @@
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <v>13.70062951350211</v>
+        <v>13.700629513502109</v>
       </c>
       <c r="D7" s="4">
-        <v>0.00514946752980778</v>
+        <v>5.1494675298077797E-3</v>
       </c>
       <c r="E7" s="4">
-        <v>0.9398057896146806</v>
+        <v>0.93980578961468064</v>
       </c>
       <c r="F7" s="4">
-        <v>0.01199531106393225</v>
+        <v>1.199531106393225E-2</v>
       </c>
       <c r="G7" s="4">
         <v>0.9939879121905365</v>
       </c>
       <c r="H7" s="4">
-        <v>0.00539002686945689</v>
+        <v>5.3900268694568902E-3</v>
       </c>
       <c r="I7" s="4">
-        <v>44286.09002959784</v>
+        <v>44286.090029597843</v>
       </c>
       <c r="J7" s="4">
-        <v>613.9228987775402</v>
+        <v>613.92289877754024</v>
       </c>
       <c r="K7" s="4">
-        <v>-62.455539026395</v>
+        <v>-62.455539026395002</v>
       </c>
       <c r="L7" s="4">
-        <v>1.339707136559375</v>
+        <v>1.3397071365593749</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>11071</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>0.07282321349103153</v>
-      </c>
-      <c r="D8">
-        <v>2.217352757929881E-05</v>
-      </c>
-      <c r="E8">
-        <v>0.0450243984590227</v>
-      </c>
-      <c r="F8">
-        <v>0.00025194700064077</v>
-      </c>
-      <c r="G8">
-        <v>0.2841002000831769</v>
-      </c>
-      <c r="H8">
-        <v>0.002848427842726483</v>
-      </c>
-      <c r="I8">
-        <v>1394.945868839532</v>
-      </c>
-      <c r="J8">
-        <v>16.01113381052805</v>
-      </c>
-      <c r="K8">
-        <v>83.36085775384028</v>
-      </c>
-      <c r="L8">
-        <v>2.125660728249602</v>
-      </c>
-      <c r="M8">
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.2823213491031533E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.217352757929881E-5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.5024398459022702E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.5194700064077002E-4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.28410020008317688</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.8484278427264829E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1394.9458688395321</v>
+      </c>
+      <c r="J8" s="6">
+        <v>16.011133810528051</v>
+      </c>
+      <c r="K8" s="6">
+        <v>83.360857753840278</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.1256607282496018</v>
+      </c>
+      <c r="M8" s="6">
         <v>33.0291</v>
       </c>
-      <c r="N8">
-        <v>0.3887</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="6">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="O8" s="6">
         <v>32.8673</v>
       </c>
-      <c r="P8">
-        <v>0.4023434377</v>
+      <c r="P8" s="6">
+        <v>0.40234343769999997</v>
       </c>
       <c r="Q8">
-        <v>91.46280257064531</v>
+        <v>91.462802570645309</v>
       </c>
       <c r="R8">
-        <v>2.334567290311991</v>
+        <v>2.3345672903119912</v>
       </c>
       <c r="S8">
         <v>98.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="4" customFormat="1">
+    <row r="9" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>10815</v>
       </c>
@@ -4734,108 +4730,108 @@
         <v>13.69960180906566</v>
       </c>
       <c r="D9" s="4">
-        <v>0.004175083530041938</v>
+        <v>4.1750835300419379E-3</v>
       </c>
       <c r="E9" s="4">
-        <v>0.9499964206048953</v>
+        <v>0.94999642060489531</v>
       </c>
       <c r="F9" s="4">
-        <v>0.01298141626529335</v>
+        <v>1.2981416265293351E-2</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9926103985379849</v>
+        <v>0.99261039853798494</v>
       </c>
       <c r="H9" s="4">
-        <v>0.003986687594578638</v>
+        <v>3.9866875945786381E-3</v>
       </c>
       <c r="I9" s="4">
-        <v>43747.03514140219</v>
+        <v>43747.035141402193</v>
       </c>
       <c r="J9" s="4">
-        <v>622.934364669362</v>
+        <v>622.93436466936203</v>
       </c>
       <c r="K9" s="4">
-        <v>-75.63705950374199</v>
+        <v>-75.637059503741995</v>
       </c>
       <c r="L9" s="4">
-        <v>1.344655020757129</v>
+        <v>1.3446550207571291</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>11072</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>0.2676448133408786</v>
-      </c>
-      <c r="D10">
-        <v>2.243328561424273E-05</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.26764481334087858</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.243328561424273E-5</v>
+      </c>
+      <c r="E10" s="5">
         <v>1.234646251141704</v>
       </c>
-      <c r="F10">
-        <v>0.00330889034359273</v>
-      </c>
-      <c r="G10">
-        <v>0.7754264711304344</v>
-      </c>
-      <c r="H10">
-        <v>0.00274639805150457</v>
-      </c>
-      <c r="I10">
-        <v>510.2718274087326</v>
-      </c>
-      <c r="J10">
+      <c r="F10" s="5">
+        <v>3.3088903435927299E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.77542647113043439</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.7463980515045699E-3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>510.27182740873258</v>
+      </c>
+      <c r="J10" s="5">
         <v>2.265964347924438</v>
       </c>
-      <c r="K10">
-        <v>92.8060651062752</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="5">
+        <v>92.806065106275199</v>
+      </c>
+      <c r="L10" s="5">
         <v>1.745913295289905</v>
       </c>
-      <c r="M10">
-        <v>131.1659</v>
-      </c>
-      <c r="N10">
-        <v>1.0009</v>
-      </c>
-      <c r="O10">
-        <v>129.9987</v>
-      </c>
-      <c r="P10">
-        <v>1.1411216587</v>
+      <c r="M10" s="5">
+        <v>131.16589999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>129.99870000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1.1411216586999999</v>
       </c>
       <c r="Q10">
-        <v>133.9378820563736</v>
+        <v>133.93788205637361</v>
       </c>
       <c r="R10">
-        <v>2.556355452016554</v>
+        <v>2.5563554520165539</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1">
+    <row r="11" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10815</v>
       </c>
@@ -4846,108 +4842,108 @@
         <v>13.69827740849508</v>
       </c>
       <c r="D11" s="4">
-        <v>0.004091778479352991</v>
+        <v>4.0917784793529912E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>0.9589345068606024</v>
+        <v>0.95893450686060244</v>
       </c>
       <c r="F11" s="4">
-        <v>0.01293058331639322</v>
+        <v>1.293058331639322E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>0.993900011937415</v>
+        <v>0.99390001193741495</v>
       </c>
       <c r="H11" s="4">
-        <v>0.005576032102401261</v>
+        <v>5.5760321024012609E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>43391.38727332542</v>
+        <v>43391.387273325417</v>
       </c>
       <c r="J11" s="4">
-        <v>633.5925864624786</v>
+        <v>633.59258646247861</v>
       </c>
       <c r="K11" s="4">
-        <v>-71.04536126314554</v>
+        <v>-71.045361263145537</v>
       </c>
       <c r="L11" s="4">
-        <v>1.324340229563539</v>
+        <v>1.3243402295635389</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11074</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>0.3409488456189519</v>
-      </c>
-      <c r="D12">
-        <v>3.356672315877018E-05</v>
-      </c>
-      <c r="E12">
-        <v>26.74781696234657</v>
-      </c>
-      <c r="F12">
-        <v>0.06480549778298191</v>
-      </c>
-      <c r="G12">
-        <v>0.6636086338400468</v>
-      </c>
-      <c r="H12">
-        <v>0.002232179014533388</v>
-      </c>
-      <c r="I12">
-        <v>25.69635237661769</v>
-      </c>
-      <c r="J12">
-        <v>0.1064923684187035</v>
-      </c>
-      <c r="K12">
-        <v>157.2372362701597</v>
-      </c>
-      <c r="L12">
+      <c r="B12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.34094884561895189</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.3566723158770181E-5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>26.747816962346569</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6.4805497782981905E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.66360863384004676</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2.2321790145333879E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>25.696352376617689</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.10649236841870351</v>
+      </c>
+      <c r="K12" s="5">
+        <v>157.23723627015971</v>
+      </c>
+      <c r="L12" s="5">
         <v>1.366746675399144</v>
       </c>
-      <c r="M12">
-        <v>90.5881</v>
-      </c>
-      <c r="N12">
-        <v>0.5085</v>
-      </c>
-      <c r="O12">
-        <v>70.06659999999999</v>
-      </c>
-      <c r="P12">
+      <c r="M12" s="5">
+        <v>90.588099999999997</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="O12" s="5">
+        <v>70.066599999999994</v>
+      </c>
+      <c r="P12" s="5">
         <v>11.6261841909</v>
       </c>
       <c r="Q12">
-        <v>191.6149468299761</v>
+        <v>191.61494682997611</v>
       </c>
       <c r="R12">
         <v>6.503733183692689</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="4" customFormat="1">
+    <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10815</v>
       </c>
@@ -4955,52 +4951,52 @@
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>13.70654910866024</v>
+        <v>13.706549108660241</v>
       </c>
       <c r="D13" s="4">
-        <v>0.004247352439305455</v>
+        <v>4.2473524393054551E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>0.9555581947770144</v>
+        <v>0.95555819477701442</v>
       </c>
       <c r="F13" s="4">
-        <v>0.01236733738987318</v>
+        <v>1.236733738987318E-2</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9940466881004874</v>
+        <v>0.99404668810048735</v>
       </c>
       <c r="H13" s="4">
-        <v>0.004527063337151084</v>
+        <v>4.5270633371510844E-3</v>
       </c>
       <c r="I13" s="4">
-        <v>43577.42830648548</v>
+        <v>43577.428306485483</v>
       </c>
       <c r="J13" s="4">
         <v>597.7474533991284</v>
       </c>
       <c r="K13" s="4">
-        <v>-55.71146207928979</v>
+        <v>-55.711462079289788</v>
       </c>
       <c r="L13" s="4">
         <v>1.278282583173604</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
